--- a/slg-dat/global.xlsx
+++ b/slg-dat/global.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>默认新用户的等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -506,111 +518,122 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>20</v>
       </c>
     </row>

--- a/slg-dat/global.xlsx
+++ b/slg-dat/global.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>key</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PassportCheckTokenUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://localhost:8081/account/checkToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证token地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,16 +176,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -504,15 +519,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="26.5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -637,8 +653,22 @@
         <v>20</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B12" r:id="rId1" display="http://localhost:8080/passport/account/checkToken"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
